--- a/documnets/外部設計（個人）/外部設計書_ヨッシーアイランド（星）.xlsx
+++ b/documnets/外部設計（個人）/外部設計書_ヨッシーアイランド（星）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\外部設計（個人）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD56254F-47A6-4F5C-ADDA-B81B315F9CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A5F615-E27D-4C66-BCEC-10202A5A569A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3150" yWindow="1815" windowWidth="11490" windowHeight="8625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログインページ" sheetId="20" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="98">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -966,6 +966,14 @@
       <t>モド</t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>apptitle</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>copyright</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -2980,6 +2988,73 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>55216</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>151848</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="275653" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0FF2A11-94E6-4A70-94A1-1355E1F82596}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2816086" y="1504674"/>
+          <a:ext cx="275653" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3050,6 +3125,73 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>210292</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="275653" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D44FF110-F018-4841-8F45-6A5730CD64DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5925292" y="5009902"/>
+          <a:ext cx="275653" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13145,8 +13287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4028EA3C-A4A0-4708-8437-462E7D57BF89}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O75" sqref="O75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -17715,8 +17857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ABE372C-96BA-48D7-92AF-D15509940D0B}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79:O79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -21006,19 +21148,29 @@
     <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
       <c r="B79" s="14"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="16"/>
+      <c r="C79" s="15">
+        <v>1</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
-      <c r="H79" s="16"/>
+      <c r="H79" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
-      <c r="L79" s="16"/>
+      <c r="L79" s="16" t="s">
+        <v>67</v>
+      </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
-      <c r="O79" s="16"/>
+      <c r="O79" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
       <c r="R79" s="19"/>
@@ -22337,8 +22489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B7F977-3C49-4D7A-94C2-7868D5646FC6}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="AE22" sqref="AE22"/>
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -25628,19 +25780,29 @@
     <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
       <c r="B79" s="14"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="16"/>
+      <c r="C79" s="15">
+        <v>1</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>97</v>
+      </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
-      <c r="H79" s="16"/>
+      <c r="H79" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
-      <c r="L79" s="16"/>
+      <c r="L79" s="16" t="s">
+        <v>67</v>
+      </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
-      <c r="O79" s="16"/>
+      <c r="O79" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
       <c r="R79" s="19"/>
@@ -26959,7 +27121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9850A2A8-FEC7-4F39-99A9-B4F861299EAA}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="L84" sqref="L84"/>
     </sheetView>
   </sheetViews>
@@ -31553,7 +31715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B7DC55-CEDC-4DC3-BA2D-8F9FD2082F14}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
@@ -49638,7 +49800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECBC2C2F-A90C-4583-8AAA-10E0485E8609}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A85" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>
